--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.676215</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>77.22830137400445</v>
+        <v>68.12626041429499</v>
       </c>
       <c r="R2">
-        <v>695.05471236604</v>
+        <v>613.136343728655</v>
       </c>
       <c r="S2">
-        <v>0.2249223651785973</v>
+        <v>0.1936876777874042</v>
       </c>
       <c r="T2">
-        <v>0.2476599003709697</v>
+        <v>0.2162646254391106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.676215</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>82.64540622031667</v>
+        <v>82.64540622031666</v>
       </c>
       <c r="R3">
-        <v>743.80865598285</v>
+        <v>743.8086559828499</v>
       </c>
       <c r="S3">
-        <v>0.2406993279341594</v>
+        <v>0.2349666151240995</v>
       </c>
       <c r="T3">
-        <v>0.2650317656414439</v>
+        <v>0.262355187438845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>1.676215</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>41.49895842113111</v>
+        <v>46.65742739035778</v>
       </c>
       <c r="R4">
-        <v>373.49062579018</v>
+        <v>419.91684651322</v>
       </c>
       <c r="S4">
-        <v>0.1208629960061633</v>
+        <v>0.1326502982523402</v>
       </c>
       <c r="T4">
-        <v>0.1330811078998542</v>
+        <v>0.1481125045931768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.676215</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>94.5698687061775</v>
+        <v>50.88344095647917</v>
       </c>
       <c r="R5">
-        <v>567.419212237065</v>
+        <v>305.3006457388751</v>
       </c>
       <c r="S5">
-        <v>0.275428543235871</v>
+        <v>0.1446651475768507</v>
       </c>
       <c r="T5">
-        <v>0.2021811852664618</v>
+        <v>0.1076852326115841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>1.676215</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>47.41283286345723</v>
+        <v>50.19461018015</v>
       </c>
       <c r="R6">
-        <v>426.7154957711151</v>
+        <v>451.75149162135</v>
       </c>
       <c r="S6">
-        <v>0.138086767645209</v>
+        <v>0.142706753961168</v>
       </c>
       <c r="T6">
-        <v>0.1520460408212704</v>
+        <v>0.159341177743473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.199252</v>
+      </c>
+      <c r="I7">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J7">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>121.928739</v>
+      </c>
+      <c r="N7">
+        <v>365.786217</v>
+      </c>
+      <c r="O7">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P7">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q7">
+        <v>12.147272551614</v>
+      </c>
+      <c r="R7">
+        <v>72.88363530968398</v>
+      </c>
+      <c r="S7">
+        <v>0.03453553736349084</v>
+      </c>
+      <c r="T7">
+        <v>0.02570741769283395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.199252</v>
+      </c>
+      <c r="I8">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J8">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>147.91433</v>
+      </c>
+      <c r="N8">
+        <v>443.74299</v>
+      </c>
+      <c r="O8">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P8">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q8">
+        <v>14.73611304058</v>
+      </c>
+      <c r="R8">
+        <v>88.41667824347999</v>
+      </c>
+      <c r="S8">
+        <v>0.04189579021489522</v>
+      </c>
+      <c r="T8">
+        <v>0.03118621167783651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.199252</v>
+      </c>
+      <c r="I9">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J9">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N9">
+        <v>250.514908</v>
+      </c>
+      <c r="O9">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P9">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q9">
+        <v>8.319266074802666</v>
+      </c>
+      <c r="R9">
+        <v>49.915596448816</v>
+      </c>
+      <c r="S9">
+        <v>0.02365224976572989</v>
+      </c>
+      <c r="T9">
+        <v>0.01760616195726661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.199252</v>
+      </c>
+      <c r="I10">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J10">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N10">
+        <v>182.136925</v>
+      </c>
+      <c r="O10">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P10">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q10">
+        <v>9.072786645024999</v>
+      </c>
+      <c r="R10">
+        <v>36.2911465801</v>
+      </c>
+      <c r="S10">
+        <v>0.02579456094682005</v>
+      </c>
+      <c r="T10">
+        <v>0.01280056434784521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.199252</v>
+      </c>
+      <c r="I11">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J11">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N11">
+        <v>269.50689</v>
+      </c>
+      <c r="O11">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P11">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q11">
+        <v>8.949964474379998</v>
+      </c>
+      <c r="R11">
+        <v>53.69978684628</v>
+      </c>
+      <c r="S11">
+        <v>0.02544536900720132</v>
+      </c>
+      <c r="T11">
+        <v>0.01894091649802829</v>
       </c>
     </row>
   </sheetData>
